--- a/11.GenerateWorkingHoursV2022/项目数据配置信息0608.xlsx
+++ b/11.GenerateWorkingHoursV2022/项目数据配置信息0608.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="19680" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -82,7 +82,7 @@
     <t>火箭公司</t>
   </si>
   <si>
-    <t>李云鹏、彭偲、艾之恒、刘帆、王伟民、常栋晖、赵龙、常耀予、许传硕、张家齐、杨晨声、彭波、魏强、王兵</t>
+    <t>李云鹏、彭偲、艾之恒、刘帆、王伟民、常栋晖、赵龙、常耀予、许传硕、张家齐、杨晨声、彭波、魏强、王兵、易跃</t>
   </si>
   <si>
     <t>亚轨道火箭投送系统研究</t>
@@ -133,7 +133,7 @@
     <t>OPM项目管理软件开发</t>
   </si>
   <si>
-    <t>王兵、彭波、魏强、鲁鹏、曾理扬、李江宜、许曦、罗川</t>
+    <t>王兵、彭波、魏强、鲁鹏、曾理扬、李江宜、许曦、罗川、易跃</t>
   </si>
   <si>
     <t>零壹空间官网系统</t>
@@ -154,7 +154,7 @@
     <t>F系列保障装备</t>
   </si>
   <si>
-    <t>缪起，郝庆生，杜晔，周泽军，杜浩东、邢盟、刘春亚，邓星，陈正扬</t>
+    <t>缪起，郝庆生，杜晔，周泽军，杜浩东、邢盟、刘春亚，邓星，陈正扬、易跃</t>
   </si>
   <si>
     <t>通用运载平台预先研究</t>
@@ -337,20 +337,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -358,17 +356,166 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,15 +525,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2C150"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -435,9 +770,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -445,22 +1022,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -469,21 +1049,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -532,7 +1153,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +1188,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -770,21 +1391,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5">
+    <row r="1" ht="16.5" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,1231 +1442,1231 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="165">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="181.5" spans="1:14">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>20200601</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>20210630</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f t="shared" ref="K2:K28" si="0">ROUND(M2*N2*22*8*0.5,0)</f>
         <v>17160</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="7">
-        <v>15</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="M2" s="8">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="181.5">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="181.5" spans="1:14">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>20210401</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>202203030</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>16896</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="8">
         <v>16</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="198">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="198" spans="1:14">
+      <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>20210101</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>20220330</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>18304</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="8">
         <v>16</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="148.5">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="148.5" spans="1:14">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>20200201</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <v>20220630</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>18480</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="8">
         <v>14</v>
       </c>
-      <c r="N5" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="66">
-      <c r="A6" s="4" t="s">
+      <c r="N5" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" ht="66" spans="1:14">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>20210101</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>20211230</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>6336</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="8">
         <v>6</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="66">
-      <c r="A7" s="4" t="s">
+    <row r="7" ht="66" spans="1:14">
+      <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>20210101</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>20211230</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>5280</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="8">
         <v>5</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="82.5">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="99" spans="1:14">
+      <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>20210401</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>20220430</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>10560</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="8">
         <v>8</v>
       </c>
-      <c r="N8" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="66">
-      <c r="A9" s="4" t="s">
+      <c r="N8" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="66" spans="1:14">
+      <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>20211101</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>20211230</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>1056</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="8">
         <v>6</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="115.5">
-      <c r="A10" s="4" t="s">
+    <row r="10" ht="115.5" spans="1:14">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>20210301</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>20220630</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>12672</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="8">
         <v>9</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="99">
-      <c r="A11" s="4" t="s">
+    <row r="11" ht="99" spans="1:14">
+      <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>20210101</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>20211230</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>9504</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="8">
         <v>9</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="49.5">
-      <c r="A12" s="4" t="s">
+    <row r="12" ht="49.5" spans="1:14">
+      <c r="A12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>20210101</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>20211230</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>5280</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="8">
         <v>5</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="66">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="66" spans="1:14">
+      <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>20210101</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>20211230</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>5280</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="8">
         <v>5</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="66">
-      <c r="A14" s="4" t="s">
+    <row r="14" ht="66" spans="1:14">
+      <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>20210101</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>20211230</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>2112</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="8">
         <v>2</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="297">
-      <c r="A15" s="4" t="s">
+    <row r="15" ht="297" spans="1:14">
+      <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>20210101</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>20220630</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>38016</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="8">
         <v>27</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="33">
-      <c r="A16" s="4" t="s">
+    <row r="16" ht="33" spans="1:14">
+      <c r="A16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>20210101</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>20211230</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>3168</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="8">
         <v>3</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="49.5">
-      <c r="A17" s="4" t="s">
+    <row r="17" ht="49.5" spans="1:14">
+      <c r="A17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>20210101</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>20211230</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>3168</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="8">
         <v>3</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="66">
-      <c r="A18" s="4" t="s">
+    <row r="18" ht="66" spans="1:14">
+      <c r="A18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <v>20210101</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>20211230</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>3168</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="8">
         <v>3</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="99">
-      <c r="A19" s="4" t="s">
+    <row r="19" ht="99" spans="1:14">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>20210101</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>20211230</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>8448</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="8">
         <v>8</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="66">
-      <c r="A20" s="4" t="s">
+    <row r="20" ht="66" spans="1:14">
+      <c r="A20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>20210601</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>20211230</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="8">
         <v>5</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="82.5">
-      <c r="A21" s="4" t="s">
+    <row r="21" ht="82.5" spans="1:14">
+      <c r="A21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>20211201</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>20220430</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>3696</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="8">
         <v>6</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="49.5">
-      <c r="A22" s="4" t="s">
+    <row r="22" ht="49.5" spans="1:14">
+      <c r="A22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>20210101</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>20211230</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>4224</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="8">
         <v>4</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="66">
-      <c r="A23" s="4" t="s">
+    <row r="23" ht="66" spans="1:14">
+      <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="5" t="s">
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>20210101</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>20211230</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>5280</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="8">
         <v>5</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="132">
-      <c r="A24" s="4" t="s">
+    <row r="24" ht="132" spans="1:14">
+      <c r="A24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>20211201</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>20220630</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>6160</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="8">
         <v>10</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="115.5">
-      <c r="A25" s="4" t="s">
+    <row r="25" ht="115.5" spans="1:14">
+      <c r="A25" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>20210101</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>20211230</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>8448</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="8">
         <v>8</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="82.5">
-      <c r="A26" s="4" t="s">
+    <row r="26" ht="82.5" spans="1:14">
+      <c r="A26" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>20210101</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>20211230</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>7392</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="8">
         <v>7</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="49.5">
-      <c r="A27" s="4" t="s">
+    <row r="27" ht="49.5" spans="1:14">
+      <c r="A27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>20210101</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="4">
         <v>20211230</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>3168</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="8">
         <v>3</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="66">
-      <c r="A28" s="4" t="s">
+    <row r="28" ht="66" spans="1:14">
+      <c r="A28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="5">
         <v>220211101</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="4">
         <v>20220630</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>3168</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="8">
         <v>6</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="9">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>